--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -43,12 +43,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,98 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,105 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,14 +207,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -236,31 +229,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,151 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +438,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -464,42 +507,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,170 +535,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -701,9 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -794,7 +784,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -1122,7 +1112,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1146,7 +1136,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1157,544 +1147,556 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>43049</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>251</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>94</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>6</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>998</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>111</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>43056</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>255</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>97</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>7</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>523</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>99</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>43063</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>256</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>97</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>350</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>79</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>43070</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>263</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>98</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>7</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>518</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>117</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>265</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>100</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>7</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>712</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>117</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="8">
+        <v>43084</v>
+      </c>
+      <c r="B7" s="9">
+        <v>272</v>
+      </c>
+      <c r="C7" s="9">
+        <v>102</v>
+      </c>
+      <c r="D7" s="9">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1383</v>
+      </c>
+      <c r="F7" s="9">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:6">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:6">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:6">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:6">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:6">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:6">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:6">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:6">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:6">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:6">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:6">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:6">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:6">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:6">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:6">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:6">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:6">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:6">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:6">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:6">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:6">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:6">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:6">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:6">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:6">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:6">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:6">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:6">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="27120" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -64,6 +64,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -71,15 +94,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,45 +164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,37 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -187,6 +188,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -199,14 +207,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -229,61 +229,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,121 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,22 +442,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,35 +494,35 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,166 +535,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,7 +1112,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1267,12 +1267,24 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="6">
+        <v>43091</v>
+      </c>
+      <c r="B8" s="7">
+        <v>273</v>
+      </c>
+      <c r="C8" s="7">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7">
+        <v>799</v>
+      </c>
+      <c r="F8" s="7">
+        <v>133</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10290"/>
+    <workbookView windowWidth="25920" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,6 +64,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -73,6 +89,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -87,13 +169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -102,23 +177,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,81 +201,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -229,67 +229,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,115 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,60 +434,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +464,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -530,8 +515,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,7 +1112,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1287,12 +1287,24 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="8">
+        <v>43098</v>
+      </c>
+      <c r="B9" s="9">
+        <v>276</v>
+      </c>
+      <c r="C9" s="9">
+        <v>105</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1076</v>
+      </c>
+      <c r="F9" s="9">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\creditRepository\github\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25920" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">       统计维度
 日期（周）</t>
@@ -41,14 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,151 +63,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,204 +78,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.25"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -437,251 +112,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -711,68 +144,24 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -786,9 +175,15 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直接连接符 1"/>
+        <xdr:cNvPr id="2" name="直接连接符 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1101,21 +496,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
@@ -1126,7 +520,7 @@
     <col min="13" max="15" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>43049</v>
       </c>
@@ -1166,7 +560,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>43056</v>
       </c>
@@ -1186,7 +580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>43063</v>
       </c>
@@ -1206,7 +600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>43070</v>
       </c>
@@ -1226,7 +620,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +640,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43084</v>
       </c>
@@ -1266,7 +660,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>43091</v>
       </c>
@@ -1286,7 +680,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>43098</v>
       </c>
@@ -1306,15 +700,27 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>43105</v>
+      </c>
+      <c r="B10" s="7">
+        <v>286</v>
+      </c>
+      <c r="C10" s="7">
+        <v>106</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>821</v>
+      </c>
+      <c r="F10" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1322,7 +728,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1330,7 +736,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:6">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1338,7 +744,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:6">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1346,7 +752,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1354,7 +760,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1362,7 +768,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1370,7 +776,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:6">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1378,7 +784,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1386,7 +792,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:6">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1394,7 +800,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:6">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1402,7 +808,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:6">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1410,7 +816,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:6">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1418,7 +824,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:6">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1426,7 +832,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1434,7 +840,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1442,7 +848,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1450,7 +856,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1458,7 +864,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1466,7 +872,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1474,7 +880,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1482,7 +888,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:6">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1490,7 +896,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:6">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1498,7 +904,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:6">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1506,7 +912,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:6">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1514,7 +920,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:6">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1522,7 +928,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:6">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1530,7 +936,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:6">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1538,7 +944,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:6">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1546,7 +952,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:6">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1554,7 +960,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:6">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1562,7 +968,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:6">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1570,7 +976,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:6">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1578,7 +984,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:6">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1586,7 +992,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:6">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1594,7 +1000,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1602,7 +1008,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:6">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1610,7 +1016,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:6">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1618,7 +1024,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:6">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1626,7 +1032,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:6">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1634,7 +1040,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:6">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1642,7 +1048,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:6">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1650,7 +1056,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:6">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1658,7 +1064,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:6">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1666,7 +1072,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:6">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1674,7 +1080,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:6">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1682,7 +1088,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:6">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1690,7 +1096,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:6">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1698,7 +1104,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:6">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1706,7 +1112,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:6">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1714,7 +1120,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:6">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1723,9 +1129,9 @@
       <c r="F61" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -506,7 +506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,12 +721,24 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="6">
+        <v>43112</v>
+      </c>
+      <c r="B11" s="9">
+        <v>287</v>
+      </c>
+      <c r="C11" s="9">
+        <v>110</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9">
+        <v>559</v>
+      </c>
+      <c r="F11" s="9">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -506,7 +506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -741,12 +741,24 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="6">
+        <v>43119</v>
+      </c>
+      <c r="B12" s="7">
+        <v>287</v>
+      </c>
+      <c r="C12" s="7">
+        <v>111</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>332</v>
+      </c>
+      <c r="F12" s="7">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +180,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -506,7 +506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:F12"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -761,12 +761,24 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="8">
+        <v>43126</v>
+      </c>
+      <c r="B13" s="9">
+        <v>287</v>
+      </c>
+      <c r="C13" s="9">
+        <v>110</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>292</v>
+      </c>
+      <c r="F13" s="9">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\creditRepository\github\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,12 +59,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -180,7 +182,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -506,21 +508,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:F13"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.125"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -540,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43049</v>
       </c>
@@ -560,7 +562,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43056</v>
       </c>
@@ -580,7 +582,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43063</v>
       </c>
@@ -600,7 +602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43070</v>
       </c>
@@ -620,7 +622,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -640,7 +642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43084</v>
       </c>
@@ -660,7 +662,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43091</v>
       </c>
@@ -680,7 +682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43098</v>
       </c>
@@ -700,7 +702,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43105</v>
       </c>
@@ -720,7 +722,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43112</v>
       </c>
@@ -740,7 +742,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43119</v>
       </c>
@@ -760,7 +762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43126</v>
       </c>
@@ -780,15 +782,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43133</v>
+      </c>
+      <c r="B14" s="7">
+        <v>293</v>
+      </c>
+      <c r="C14" s="7">
+        <v>111</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>572</v>
+      </c>
+      <c r="F14" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -796,7 +810,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -804,7 +818,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -812,7 +826,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -820,7 +834,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -828,7 +842,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -836,7 +850,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -844,7 +858,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -852,7 +866,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -860,7 +874,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -868,7 +882,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -876,7 +890,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -884,7 +898,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -892,7 +906,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -900,7 +914,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -908,7 +922,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -916,7 +930,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -924,7 +938,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -932,7 +946,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -940,7 +954,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -948,7 +962,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -956,7 +970,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -964,7 +978,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -972,7 +986,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -980,7 +994,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -988,7 +1002,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -996,7 +1010,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1004,7 +1018,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1012,7 +1026,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1020,7 +1034,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1028,7 +1042,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1036,7 +1050,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1044,7 +1058,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1052,7 +1066,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1060,7 +1074,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1068,7 +1082,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1076,7 +1090,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1084,7 +1098,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1092,7 +1106,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1100,7 +1114,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1108,7 +1122,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1116,7 +1130,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1124,7 +1138,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1132,7 +1146,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1140,7 +1154,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1148,7 +1162,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1156,7 +1170,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xinyuzhou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="7368"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -803,12 +803,24 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="8">
+        <v>43140</v>
+      </c>
+      <c r="B15" s="9">
+        <v>294</v>
+      </c>
+      <c r="C15" s="9">
+        <v>114</v>
+      </c>
+      <c r="D15" s="9">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9">
+        <v>586</v>
+      </c>
+      <c r="F15" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -66,6 +66,97 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,29 +171,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,98 +207,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -229,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,16 +439,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,30 +467,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,16 +487,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,11 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,16 +553,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,115 +571,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,7 +1112,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1447,12 +1447,24 @@
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="8">
+        <v>43175</v>
+      </c>
+      <c r="B17" s="9">
+        <v>304</v>
+      </c>
+      <c r="C17" s="9">
+        <v>117</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>459</v>
+      </c>
+      <c r="F17" s="9">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitResp\uavStack\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10451"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="10452"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">       统计维度
 日期（周）</t>
@@ -41,14 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,151 +63,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,194 +88,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -437,251 +112,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -711,68 +144,24 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -786,7 +175,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="2" name="直接连接符 1"/>
         <xdr:cNvCxnSpPr/>
@@ -1101,32 +490,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.1111111111111" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.4444444444444" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.4444444444444" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.11111111111111"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43049</v>
       </c>
@@ -1166,7 +554,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43056</v>
       </c>
@@ -1186,7 +574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43063</v>
       </c>
@@ -1206,7 +594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43070</v>
       </c>
@@ -1226,7 +614,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +634,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43084</v>
       </c>
@@ -1266,7 +654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43091</v>
       </c>
@@ -1286,7 +674,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43098</v>
       </c>
@@ -1306,7 +694,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43105</v>
       </c>
@@ -1326,7 +714,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43112</v>
       </c>
@@ -1346,7 +734,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43119</v>
       </c>
@@ -1366,7 +754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:6">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43126</v>
       </c>
@@ -1386,7 +774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:6">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43133</v>
       </c>
@@ -1406,7 +794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
@@ -1426,7 +814,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43168</v>
       </c>
@@ -1446,7 +834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43175</v>
       </c>
@@ -1466,7 +854,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:6">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43182</v>
       </c>
@@ -1486,15 +874,27 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:6">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>43189</v>
+      </c>
+      <c r="B19" s="9">
+        <v>309</v>
+      </c>
+      <c r="C19" s="9">
+        <v>120</v>
+      </c>
+      <c r="D19" s="9">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9">
+        <v>451</v>
+      </c>
+      <c r="F19" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1502,7 +902,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:6">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1510,7 +910,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:6">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1518,7 +918,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:6">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1526,7 +926,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:6">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1534,7 +934,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1542,7 +942,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1550,7 +950,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1558,7 +958,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1566,7 +966,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1574,7 +974,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1582,7 +982,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1590,7 +990,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:6">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1598,7 +998,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:6">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1606,7 +1006,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:6">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1614,7 +1014,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:6">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1622,7 +1022,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:6">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1630,7 +1030,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:6">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1638,7 +1038,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:6">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1646,7 +1046,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:6">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1654,7 +1054,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:6">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1662,7 +1062,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:6">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1670,7 +1070,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:6">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1678,7 +1078,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:6">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1686,7 +1086,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:6">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1694,7 +1094,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:6">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1702,7 +1102,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1710,7 +1110,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:6">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1718,7 +1118,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:6">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1726,7 +1126,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:6">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1734,7 +1134,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:6">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1742,7 +1142,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:6">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1750,7 +1150,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:6">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1758,7 +1158,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:6">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1766,7 +1166,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:6">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1774,7 +1174,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:6">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1782,7 +1182,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:6">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1790,7 +1190,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:6">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1798,7 +1198,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:6">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1806,7 +1206,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:6">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1814,7 +1214,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:6">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1822,7 +1222,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:6">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1831,9 +1231,9 @@
       <c r="F61" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -500,7 +500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -895,12 +895,24 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="6">
+        <v>43203</v>
+      </c>
+      <c r="B20" s="7">
+        <v>312</v>
+      </c>
+      <c r="C20" s="7">
+        <v>121</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9</v>
+      </c>
+      <c r="E20" s="7">
+        <v>944</v>
+      </c>
+      <c r="F20" s="7">
+        <v>129</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -1233,7 +1245,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -59,12 +59,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -499,8 +501,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -915,12 +917,24 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="8">
+        <v>43210</v>
+      </c>
+      <c r="B21" s="9">
+        <v>315</v>
+      </c>
+      <c r="C21" s="9">
+        <v>123</v>
+      </c>
+      <c r="D21" s="9">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9">
+        <v>218</v>
+      </c>
+      <c r="F21" s="9">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -502,7 +502,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -937,12 +937,24 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="6">
+        <v>43217</v>
+      </c>
+      <c r="B22" s="7">
+        <v>319</v>
+      </c>
+      <c r="C22" s="7">
+        <v>126</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>315</v>
+      </c>
+      <c r="F22" s="7">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitResp\uavStack\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianxinhe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E010A38-ECDC-4816-94CE-6CF42218119E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="10452"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,8 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +66,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -118,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -143,6 +152,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -179,7 +191,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直接连接符 1"/>
+        <xdr:cNvPr id="2" name="直接连接符 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -497,12 +515,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -957,12 +975,24 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="10">
+        <v>43224</v>
+      </c>
+      <c r="B23" s="9">
+        <v>321</v>
+      </c>
+      <c r="C23" s="9">
+        <v>128</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>350</v>
+      </c>
+      <c r="F23" s="9">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianxinhe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\公司相关\其他任务相关\周报汇总\20180511\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E010A38-ECDC-4816-94CE-6CF42218119E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F2AF8580-27CF-43A7-9B9D-736EE5A5D535}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15552" windowHeight="7776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,8 +519,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -995,12 +995,24 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="6">
+        <v>43231</v>
+      </c>
+      <c r="B24" s="7">
+        <v>321</v>
+      </c>
+      <c r="C24" s="7">
+        <v>128</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>555</v>
+      </c>
+      <c r="F24" s="7">
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\公司相关\其他任务相关\周报汇总\20180511\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allInOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F2AF8580-27CF-43A7-9B9D-736EE5A5D535}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15552" windowHeight="7776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,7 +193,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -515,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1015,12 +1014,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="8">
+        <v>43238</v>
+      </c>
+      <c r="B25" s="9">
+        <v>322</v>
+      </c>
+      <c r="C25" s="9">
+        <v>129</v>
+      </c>
+      <c r="D25" s="9">
+        <v>5</v>
+      </c>
+      <c r="E25" s="9">
+        <v>442</v>
+      </c>
+      <c r="F25" s="9">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allInOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianxinhe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6B1B3A2-AFE1-412A-90D9-C32A4038861D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +194,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -514,12 +515,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -734,7 +735,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="8">
         <v>43112</v>
       </c>
       <c r="B11" s="9">
@@ -1034,12 +1035,24 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="6">
+        <v>43245</v>
+      </c>
+      <c r="B26" s="7">
+        <v>324</v>
+      </c>
+      <c r="C26" s="7">
+        <v>130</v>
+      </c>
+      <c r="D26" s="7">
+        <v>14</v>
+      </c>
+      <c r="E26" s="7">
+        <v>658</v>
+      </c>
+      <c r="F26" s="7">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianxinhe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhiqiuxie\Desktop\周更\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6B1B3A2-AFE1-412A-90D9-C32A4038861D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,7 +193,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -515,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1055,12 +1054,24 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="8">
+        <v>43252</v>
+      </c>
+      <c r="B27" s="9">
+        <v>330</v>
+      </c>
+      <c r="C27" s="9">
+        <v>136</v>
+      </c>
+      <c r="D27" s="9">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9">
+        <v>683</v>
+      </c>
+      <c r="F27" s="9">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -193,7 +193,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -518,8 +518,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1074,12 +1074,24 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="6">
+        <v>43259</v>
+      </c>
+      <c r="B28" s="7">
+        <v>334</v>
+      </c>
+      <c r="C28" s="7">
+        <v>137</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7">
+        <v>485</v>
+      </c>
+      <c r="F28" s="7">
+        <v>79</v>
+      </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -193,7 +193,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -519,7 +519,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1094,12 +1094,24 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="8">
+        <v>43266</v>
+      </c>
+      <c r="B29" s="9">
+        <v>335</v>
+      </c>
+      <c r="C29" s="9">
+        <v>139</v>
+      </c>
+      <c r="D29" s="9">
+        <v>11</v>
+      </c>
+      <c r="E29" s="9">
+        <v>289</v>
+      </c>
+      <c r="F29" s="9">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhiqiuxie\Desktop\周更\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\osgit\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BE9710A-E279-4184-AFA8-1E0425EC0F7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +194,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -514,12 +515,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1114,12 +1115,24 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="A30" s="6">
+        <v>43273</v>
+      </c>
+      <c r="B30" s="7">
+        <v>336</v>
+      </c>
+      <c r="C30" s="7">
+        <v>139</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>443</v>
+      </c>
+      <c r="F30" s="7">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianxinhe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6B1B3A2-AFE1-412A-90D9-C32A4038861D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D38B3AF2-ADBA-4DD4-9B85-7AC398BC0ED9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,8 +519,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1055,52 +1055,124 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="8">
+        <v>43252</v>
+      </c>
+      <c r="B27" s="9">
+        <v>330</v>
+      </c>
+      <c r="C27" s="9">
+        <v>136</v>
+      </c>
+      <c r="D27" s="9">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9">
+        <v>683</v>
+      </c>
+      <c r="F27" s="9">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="6">
+        <v>43259</v>
+      </c>
+      <c r="B28" s="7">
+        <v>334</v>
+      </c>
+      <c r="C28" s="7">
+        <v>137</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7">
+        <v>485</v>
+      </c>
+      <c r="F28" s="7">
+        <v>79</v>
+      </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="8">
+        <v>43266</v>
+      </c>
+      <c r="B29" s="9">
+        <v>335</v>
+      </c>
+      <c r="C29" s="9">
+        <v>139</v>
+      </c>
+      <c r="D29" s="9">
+        <v>11</v>
+      </c>
+      <c r="E29" s="9">
+        <v>289</v>
+      </c>
+      <c r="F29" s="9">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="A30" s="6">
+        <v>43273</v>
+      </c>
+      <c r="B30" s="7">
+        <v>336</v>
+      </c>
+      <c r="C30" s="7">
+        <v>139</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>443</v>
+      </c>
+      <c r="F30" s="7">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="8">
+        <v>43280</v>
+      </c>
+      <c r="B31" s="9">
+        <v>339</v>
+      </c>
+      <c r="C31" s="9">
+        <v>140</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>299</v>
+      </c>
+      <c r="F31" s="9">
+        <v>75</v>
+      </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="A32" s="6">
+        <v>43287</v>
+      </c>
+      <c r="B32" s="7">
+        <v>340</v>
+      </c>
+      <c r="C32" s="7">
+        <v>141</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7">
+        <v>317</v>
+      </c>
+      <c r="F32" s="7">
+        <v>88</v>
+      </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\osgit\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BE9710A-E279-4184-AFA8-1E0425EC0F7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t xml:space="preserve">       统计维度
 日期（周）</t>
@@ -47,8 +41,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,14 +60,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -75,12 +67,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +234,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -123,9 +444,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -154,28 +717,72 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -189,21 +796,15 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直接连接符 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="直接连接符 1"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19050" y="28575"/>
-          <a:ext cx="1064895" cy="314325"/>
+          <a:ext cx="1184275" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -510,31 +1111,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.109375"/>
+    <col min="1" max="1" width="15.6666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.775" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.1083333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.4416666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.4416666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.4416666666667" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -554,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="6">
         <v>43049</v>
       </c>
@@ -574,7 +1176,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="8">
         <v>43056</v>
       </c>
@@ -594,7 +1196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="6">
         <v>43063</v>
       </c>
@@ -614,7 +1216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="8">
         <v>43070</v>
       </c>
@@ -634,7 +1236,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -654,7 +1256,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="8">
         <v>43084</v>
       </c>
@@ -674,7 +1276,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="6">
         <v>43091</v>
       </c>
@@ -694,7 +1296,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="8">
         <v>43098</v>
       </c>
@@ -714,7 +1316,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="6">
         <v>43105</v>
       </c>
@@ -734,7 +1336,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="8">
         <v>43112</v>
       </c>
@@ -754,7 +1356,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="6">
         <v>43119</v>
       </c>
@@ -774,7 +1376,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="8">
         <v>43126</v>
       </c>
@@ -794,7 +1396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="6">
         <v>43133</v>
       </c>
@@ -814,7 +1416,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" s="2" customFormat="1" spans="1:6">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
@@ -834,7 +1436,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="6">
         <v>43168</v>
       </c>
@@ -854,7 +1456,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" s="2" customFormat="1" spans="1:6">
       <c r="A17" s="8">
         <v>43175</v>
       </c>
@@ -874,7 +1476,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="6">
         <v>43182</v>
       </c>
@@ -894,7 +1496,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" s="2" customFormat="1" spans="1:6">
       <c r="A19" s="8">
         <v>43189</v>
       </c>
@@ -914,7 +1516,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="6">
         <v>43203</v>
       </c>
@@ -934,7 +1536,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" s="2" customFormat="1" spans="1:6">
       <c r="A21" s="8">
         <v>43210</v>
       </c>
@@ -954,7 +1556,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="6">
         <v>43217</v>
       </c>
@@ -974,7 +1576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" s="2" customFormat="1" spans="1:6">
       <c r="A23" s="10">
         <v>43224</v>
       </c>
@@ -994,7 +1596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="6">
         <v>43231</v>
       </c>
@@ -1014,7 +1616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" s="2" customFormat="1" spans="1:6">
       <c r="A25" s="8">
         <v>43238</v>
       </c>
@@ -1034,7 +1636,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="6">
         <v>43245</v>
       </c>
@@ -1054,7 +1656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" s="2" customFormat="1" spans="1:6">
       <c r="A27" s="8">
         <v>43252</v>
       </c>
@@ -1074,7 +1676,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="6">
         <v>43259</v>
       </c>
@@ -1094,7 +1696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" s="2" customFormat="1" spans="1:6">
       <c r="A29" s="8">
         <v>43266</v>
       </c>
@@ -1114,7 +1716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="6">
         <v>43273</v>
       </c>
@@ -1134,23 +1736,47 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" s="2" customFormat="1" spans="1:6">
+      <c r="A31" s="8">
+        <v>43280</v>
+      </c>
+      <c r="B31" s="9">
+        <v>339</v>
+      </c>
+      <c r="C31" s="9">
+        <v>140</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>299</v>
+      </c>
+      <c r="F31" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:6">
+      <c r="A32" s="6">
+        <v>43287</v>
+      </c>
+      <c r="B32" s="7">
+        <v>340</v>
+      </c>
+      <c r="C32" s="7">
+        <v>141</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7">
+        <v>317</v>
+      </c>
+      <c r="F32" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:6">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1158,7 +1784,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1166,7 +1792,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" s="2" customFormat="1" spans="1:6">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1174,7 +1800,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1182,7 +1808,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" s="2" customFormat="1" spans="1:6">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1190,7 +1816,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1198,7 +1824,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" s="2" customFormat="1" spans="1:6">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1206,7 +1832,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1214,7 +1840,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" s="2" customFormat="1" spans="1:6">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1222,7 +1848,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1230,7 +1856,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" s="2" customFormat="1" spans="1:6">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1238,7 +1864,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1246,7 +1872,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" s="2" customFormat="1" spans="1:6">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1254,7 +1880,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1262,7 +1888,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" s="2" customFormat="1" spans="1:6">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1270,7 +1896,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1278,7 +1904,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" s="2" customFormat="1" spans="1:6">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1286,7 +1912,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1294,7 +1920,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" s="2" customFormat="1" spans="1:6">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1302,7 +1928,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1310,7 +1936,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" s="2" customFormat="1" spans="1:6">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1318,7 +1944,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1326,7 +1952,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" s="2" customFormat="1" spans="1:6">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1334,7 +1960,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1342,7 +1968,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" s="2" customFormat="1" spans="1:6">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1350,7 +1976,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1358,7 +1984,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" s="2" customFormat="1" spans="1:6">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1366,7 +1992,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1374,7 +2000,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" s="2" customFormat="1" spans="1:6">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1383,9 +2009,9 @@
       <c r="F61" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -43,12 +43,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,22 +64,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,29 +103,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +114,43 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,45 +171,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,18 +193,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +438,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -456,24 +484,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +503,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -507,51 +535,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,137 +553,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -715,9 +708,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1120,9 +1110,9 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:F32"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1577,7 +1567,7 @@
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:6">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>43224</v>
       </c>
       <c r="B23" s="9">
@@ -1777,12 +1767,24 @@
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:6">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="8">
+        <v>43294</v>
+      </c>
+      <c r="B33" s="9">
+        <v>345</v>
+      </c>
+      <c r="C33" s="9">
+        <v>141</v>
+      </c>
+      <c r="D33" s="9">
+        <v>4</v>
+      </c>
+      <c r="E33" s="9">
+        <v>523</v>
+      </c>
+      <c r="F33" s="9">
+        <v>105</v>
+      </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -44,8 +44,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -64,9 +64,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,7 +81,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,15 +110,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,14 +132,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +176,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -155,58 +201,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -229,13 +229,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,37 +355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,25 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,85 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +438,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -453,13 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,8 +489,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +510,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -502,49 +535,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,7 +1112,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1787,12 +1787,24 @@
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="A34" s="6">
+        <v>43301</v>
+      </c>
+      <c r="B34" s="7">
+        <v>346</v>
+      </c>
+      <c r="C34" s="7">
+        <v>143</v>
+      </c>
+      <c r="D34" s="7">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7">
+        <v>344</v>
+      </c>
+      <c r="F34" s="7">
+        <v>81</v>
+      </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:6">
       <c r="A35" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAVStackIDE\defaultgitroot\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">       统计维度
 日期（周）</t>
@@ -41,14 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,151 +63,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,194 +88,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -437,251 +112,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -711,68 +144,24 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -786,7 +175,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="2" name="直接连接符 1"/>
         <xdr:cNvCxnSpPr/>
@@ -1101,32 +490,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.775" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.1083333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.4416666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.4416666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.4416666666667" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.10833333333333"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43049</v>
       </c>
@@ -1166,7 +554,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43056</v>
       </c>
@@ -1186,7 +574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43063</v>
       </c>
@@ -1206,7 +594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43070</v>
       </c>
@@ -1226,7 +614,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +634,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43084</v>
       </c>
@@ -1266,7 +654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43091</v>
       </c>
@@ -1286,7 +674,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43098</v>
       </c>
@@ -1306,7 +694,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43105</v>
       </c>
@@ -1326,7 +714,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43112</v>
       </c>
@@ -1346,7 +734,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43119</v>
       </c>
@@ -1366,7 +754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:6">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43126</v>
       </c>
@@ -1386,7 +774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:6">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43133</v>
       </c>
@@ -1406,7 +794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
@@ -1426,7 +814,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43168</v>
       </c>
@@ -1446,7 +834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43175</v>
       </c>
@@ -1466,7 +854,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:6">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43182</v>
       </c>
@@ -1486,7 +874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43189</v>
       </c>
@@ -1506,7 +894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:6">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43203</v>
       </c>
@@ -1526,7 +914,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:6">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43210</v>
       </c>
@@ -1546,7 +934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:6">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43217</v>
       </c>
@@ -1566,7 +954,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:6">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43224</v>
       </c>
@@ -1586,7 +974,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:6">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43231</v>
       </c>
@@ -1606,7 +994,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43238</v>
       </c>
@@ -1626,7 +1014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43245</v>
       </c>
@@ -1646,7 +1034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43252</v>
       </c>
@@ -1666,7 +1054,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43259</v>
       </c>
@@ -1686,7 +1074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>43266</v>
       </c>
@@ -1706,7 +1094,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43273</v>
       </c>
@@ -1726,7 +1114,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>43280</v>
       </c>
@@ -1746,7 +1134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:6">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43287</v>
       </c>
@@ -1766,7 +1154,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:6">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>43294</v>
       </c>
@@ -1786,7 +1174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:6">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43301</v>
       </c>
@@ -1806,15 +1194,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:6">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:6">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>43308</v>
+      </c>
+      <c r="B35" s="9">
+        <v>348</v>
+      </c>
+      <c r="C35" s="9">
+        <v>144</v>
+      </c>
+      <c r="D35" s="9">
+        <v>7</v>
+      </c>
+      <c r="E35" s="9">
+        <v>209</v>
+      </c>
+      <c r="F35" s="9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1822,7 +1222,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:6">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1830,7 +1230,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:6">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1838,7 +1238,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:6">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1846,7 +1246,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:6">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1854,7 +1254,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:6">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1862,7 +1262,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:6">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1870,7 +1270,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:6">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1878,7 +1278,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:6">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1886,7 +1286,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:6">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1894,7 +1294,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1902,7 +1302,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:6">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1910,7 +1310,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:6">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1918,7 +1318,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:6">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1926,7 +1326,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:6">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1934,7 +1334,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:6">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1942,7 +1342,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:6">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1950,7 +1350,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:6">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1958,7 +1358,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:6">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1966,7 +1366,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:6">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1974,7 +1374,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:6">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1982,7 +1382,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:6">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1990,7 +1390,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:6">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1998,7 +1398,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:6">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2006,7 +1406,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:6">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2014,7 +1414,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:6">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2023,9 +1423,9 @@
       <c r="F61" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAVStackIDE\defaultgitroot\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-uavstack\git_doc\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -499,8 +499,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:F35"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1215,12 +1215,24 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="A36" s="6">
+        <v>43315</v>
+      </c>
+      <c r="B36" s="7">
+        <v>351</v>
+      </c>
+      <c r="C36" s="7">
+        <v>146</v>
+      </c>
+      <c r="D36" s="7">
+        <v>14</v>
+      </c>
+      <c r="E36" s="7">
+        <v>513</v>
+      </c>
+      <c r="F36" s="7">
+        <v>58</v>
+      </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -498,9 +498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1235,12 +1235,24 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="8">
+        <v>43322</v>
+      </c>
+      <c r="B37" s="9">
+        <v>353</v>
+      </c>
+      <c r="C37" s="9">
+        <v>147</v>
+      </c>
+      <c r="D37" s="9">
+        <v>9</v>
+      </c>
+      <c r="E37" s="9">
+        <v>788</v>
+      </c>
+      <c r="F37" s="9">
+        <v>246</v>
+      </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -498,9 +498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1255,12 +1255,24 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="A38" s="6">
+        <v>43329</v>
+      </c>
+      <c r="B38" s="7">
+        <v>352</v>
+      </c>
+      <c r="C38" s="7">
+        <v>148</v>
+      </c>
+      <c r="D38" s="7">
+        <v>6</v>
+      </c>
+      <c r="E38" s="7">
+        <v>450</v>
+      </c>
+      <c r="F38" s="7">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -499,8 +499,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1275,12 +1275,24 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="8">
+        <v>43337</v>
+      </c>
+      <c r="B39" s="9">
+        <v>356</v>
+      </c>
+      <c r="C39" s="9">
+        <v>151</v>
+      </c>
+      <c r="D39" s="9">
+        <v>3</v>
+      </c>
+      <c r="E39" s="9">
+        <v>343</v>
+      </c>
+      <c r="F39" s="9">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -499,8 +499,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1295,12 +1295,24 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="6">
+        <v>43343</v>
+      </c>
+      <c r="B40" s="7">
+        <v>356</v>
+      </c>
+      <c r="C40" s="7">
+        <v>152</v>
+      </c>
+      <c r="D40" s="7">
+        <v>5</v>
+      </c>
+      <c r="E40" s="7">
+        <v>166</v>
+      </c>
+      <c r="F40" s="7">
+        <v>47</v>
+      </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-uavstack\git_doc\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BaiduNetdiskDownload\UAVIDE官网主页0907\documents-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E780AEC6-5FFB-48CF-BBD8-1C914EC1AA98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +178,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直接连接符 1"/>
+        <xdr:cNvPr id="2" name="直接连接符 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -495,26 +502,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.109375"/>
+    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -534,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>43049</v>
       </c>
@@ -554,7 +561,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>43056</v>
       </c>
@@ -574,7 +581,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>43063</v>
       </c>
@@ -594,7 +601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>43070</v>
       </c>
@@ -614,7 +621,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -634,7 +641,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43084</v>
       </c>
@@ -654,7 +661,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>43091</v>
       </c>
@@ -674,7 +681,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>43098</v>
       </c>
@@ -694,7 +701,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>43105</v>
       </c>
@@ -714,7 +721,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>43112</v>
       </c>
@@ -734,7 +741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>43119</v>
       </c>
@@ -754,7 +761,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>43126</v>
       </c>
@@ -774,7 +781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>43133</v>
       </c>
@@ -794,7 +801,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
@@ -814,7 +821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>43168</v>
       </c>
@@ -834,7 +841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>43175</v>
       </c>
@@ -854,7 +861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>43182</v>
       </c>
@@ -874,7 +881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>43189</v>
       </c>
@@ -894,7 +901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>43203</v>
       </c>
@@ -914,7 +921,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>43210</v>
       </c>
@@ -934,7 +941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>43217</v>
       </c>
@@ -954,7 +961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>43224</v>
       </c>
@@ -974,7 +981,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>43231</v>
       </c>
@@ -994,7 +1001,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>43238</v>
       </c>
@@ -1014,7 +1021,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>43245</v>
       </c>
@@ -1034,7 +1041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>43252</v>
       </c>
@@ -1054,7 +1061,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>43259</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>43266</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>43273</v>
       </c>
@@ -1114,7 +1121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>43280</v>
       </c>
@@ -1134,7 +1141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>43287</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>43294</v>
       </c>
@@ -1174,7 +1181,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>43301</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>43308</v>
       </c>
@@ -1214,7 +1221,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>43315</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>43322</v>
       </c>
@@ -1254,7 +1261,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>43329</v>
       </c>
@@ -1274,7 +1281,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>43337</v>
       </c>
@@ -1294,7 +1301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>43343</v>
       </c>
@@ -1314,15 +1321,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <v>43350</v>
+      </c>
+      <c r="B41" s="9">
+        <v>356</v>
+      </c>
+      <c r="C41" s="9">
+        <v>153</v>
+      </c>
+      <c r="D41" s="9">
+        <v>6</v>
+      </c>
+      <c r="E41" s="9">
+        <v>204</v>
+      </c>
+      <c r="F41" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1330,7 +1349,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1338,7 +1357,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1346,7 +1365,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1354,7 +1373,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1362,7 +1381,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1370,7 +1389,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1378,7 +1397,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1386,7 +1405,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1394,7 +1413,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1402,7 +1421,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1410,7 +1429,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1418,7 +1437,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1426,7 +1445,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1434,7 +1453,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1442,7 +1461,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1450,7 +1469,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1458,7 +1477,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1466,7 +1485,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1474,7 +1493,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BaiduNetdiskDownload\UAVIDE官网主页0907\documents-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E780AEC6-5FFB-48CF-BBD8-1C914EC1AA98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D826922F-EAC9-44F4-9F6A-355D72570A27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1342,12 +1342,24 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="A42" s="6">
+        <v>43357</v>
+      </c>
+      <c r="B42" s="7">
+        <v>361</v>
+      </c>
+      <c r="C42" s="7">
+        <v>153</v>
+      </c>
+      <c r="D42" s="7">
+        <v>5</v>
+      </c>
+      <c r="E42" s="7">
+        <v>461</v>
+      </c>
+      <c r="F42" s="7">
+        <v>69</v>
+      </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D826922F-EAC9-44F4-9F6A-355D72570A27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B131E72-84FC-4612-A211-8041CD37D53B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,12 +1362,24 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="A43" s="8">
+        <v>43364</v>
+      </c>
+      <c r="B43" s="9">
+        <v>361</v>
+      </c>
+      <c r="C43" s="9">
+        <v>153</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9">
+        <v>295</v>
+      </c>
+      <c r="F43" s="9">
+        <v>51</v>
+      </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B131E72-84FC-4612-A211-8041CD37D53B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A66019F-9EDB-4682-802B-8044D5594490}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,8 +506,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1382,12 +1382,24 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="A44" s="6">
+        <v>43371</v>
+      </c>
+      <c r="B44" s="7">
+        <v>362</v>
+      </c>
+      <c r="C44" s="7">
+        <v>152</v>
+      </c>
+      <c r="D44" s="7">
+        <v>6</v>
+      </c>
+      <c r="E44" s="7">
+        <v>221</v>
+      </c>
+      <c r="F44" s="7">
+        <v>53</v>
+      </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAVStackIDE\defaultgitroot\uavorgdoc\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A66019F-9EDB-4682-802B-8044D5594490}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD9C8FE-F4CB-4CBE-BA52-4D6FAEF1D324}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,22 +506,22 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45:F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.125"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43049</v>
       </c>
@@ -561,7 +561,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43056</v>
       </c>
@@ -581,7 +581,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43063</v>
       </c>
@@ -601,7 +601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43070</v>
       </c>
@@ -621,7 +621,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -641,7 +641,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43084</v>
       </c>
@@ -661,7 +661,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43091</v>
       </c>
@@ -681,7 +681,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43098</v>
       </c>
@@ -701,7 +701,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43105</v>
       </c>
@@ -721,7 +721,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43112</v>
       </c>
@@ -741,7 +741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43119</v>
       </c>
@@ -761,7 +761,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43126</v>
       </c>
@@ -781,7 +781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43133</v>
       </c>
@@ -801,7 +801,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
@@ -821,7 +821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43168</v>
       </c>
@@ -841,7 +841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43175</v>
       </c>
@@ -861,7 +861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43182</v>
       </c>
@@ -881,7 +881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43189</v>
       </c>
@@ -901,7 +901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43203</v>
       </c>
@@ -921,7 +921,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43210</v>
       </c>
@@ -941,7 +941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43217</v>
       </c>
@@ -961,7 +961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43224</v>
       </c>
@@ -981,7 +981,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43231</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43238</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43245</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43252</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43259</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>43266</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43273</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>43280</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43287</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>43294</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43301</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>43308</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43315</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>43322</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43329</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>43337</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43343</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>43350</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43357</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>43364</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43371</v>
       </c>
@@ -1401,23 +1401,47 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>43378</v>
+      </c>
+      <c r="B45" s="9">
+        <v>362</v>
+      </c>
+      <c r="C45" s="9">
+        <v>152</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2</v>
+      </c>
+      <c r="E45" s="9">
+        <v>154</v>
+      </c>
+      <c r="F45" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>43385</v>
+      </c>
+      <c r="B46" s="7">
+        <v>364</v>
+      </c>
+      <c r="C46" s="7">
+        <v>156</v>
+      </c>
+      <c r="D46" s="7">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7">
+        <v>370</v>
+      </c>
+      <c r="F46" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1425,7 +1449,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1433,7 +1457,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1441,7 +1465,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1449,7 +1473,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1457,7 +1481,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1465,7 +1489,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1473,7 +1497,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1481,7 +1505,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1489,7 +1513,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1497,7 +1521,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1505,7 +1529,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1513,7 +1537,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1521,7 +1545,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1529,7 +1553,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAVStackIDE\defaultgitroot\uavorgdoc\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD9C8FE-F4CB-4CBE-BA52-4D6FAEF1D324}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E544612-240F-47DB-A0D8-E853D0B3914D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45:F46"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1442,12 +1442,24 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="A47" s="8">
+        <v>43392</v>
+      </c>
+      <c r="B47" s="9">
+        <v>378</v>
+      </c>
+      <c r="C47" s="9">
+        <v>158</v>
+      </c>
+      <c r="D47" s="9">
+        <v>5</v>
+      </c>
+      <c r="E47" s="9">
+        <v>535</v>
+      </c>
+      <c r="F47" s="9">
+        <v>103</v>
+      </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAVStackIDE\defaultgitroot\uavorgdoc\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E544612-240F-47DB-A0D8-E853D0B3914D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ABC882-9D1C-48BA-AF0E-732660CC7AFD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -506,8 +506,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1462,12 +1462,24 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="A48" s="6">
+        <v>43399</v>
+      </c>
+      <c r="B48" s="7">
+        <v>381</v>
+      </c>
+      <c r="C48" s="7">
+        <v>160</v>
+      </c>
+      <c r="D48" s="7">
+        <v>6</v>
+      </c>
+      <c r="E48" s="7">
+        <v>622</v>
+      </c>
+      <c r="F48" s="7">
+        <v>98</v>
+      </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAVStackIDE\defaultgitroot\uavorgdoc\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UAVORG\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ABC882-9D1C-48BA-AF0E-732660CC7AFD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE75459-4A10-4AEF-BA39-80C4451869DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28690" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,19 +506,19 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.109375"/>
+    <col min="1" max="1" width="15.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,12 +1482,24 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="A49" s="8">
+        <v>43406</v>
+      </c>
+      <c r="B49" s="9">
+        <v>388</v>
+      </c>
+      <c r="C49" s="9">
+        <v>163</v>
+      </c>
+      <c r="D49" s="9">
+        <v>9</v>
+      </c>
+      <c r="E49" s="9">
+        <v>384</v>
+      </c>
+      <c r="F49" s="9">
+        <v>88</v>
+      </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UAVORG\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE75459-4A10-4AEF-BA39-80C4451869DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A57A0BD-591D-4167-9812-1290C2E2591C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28690" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1502,12 +1502,24 @@
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="A50" s="6">
+        <v>43413</v>
+      </c>
+      <c r="B50" s="7">
+        <v>390</v>
+      </c>
+      <c r="C50" s="7">
+        <v>164</v>
+      </c>
+      <c r="D50" s="7">
+        <v>8</v>
+      </c>
+      <c r="E50" s="7">
+        <v>365</v>
+      </c>
+      <c r="F50" s="7">
+        <v>65</v>
+      </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UAVORG\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A57A0BD-591D-4167-9812-1290C2E2591C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED2F1FF-BDDD-4D54-AE5A-4940DAE4EE0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28690" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1522,12 +1522,24 @@
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="A51" s="8">
+        <v>43420</v>
+      </c>
+      <c r="B51" s="9">
+        <v>392</v>
+      </c>
+      <c r="C51" s="9">
+        <v>165</v>
+      </c>
+      <c r="D51" s="9">
+        <v>5</v>
+      </c>
+      <c r="E51" s="9">
+        <v>392</v>
+      </c>
+      <c r="F51" s="9">
+        <v>66</v>
+      </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UAVORG\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED2F1FF-BDDD-4D54-AE5A-4940DAE4EE0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A3F96-3AAC-4536-8390-5BA658AB70FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28690" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1542,12 +1542,24 @@
       </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="A52" s="6">
+        <v>43427</v>
+      </c>
+      <c r="B52" s="7">
+        <v>392</v>
+      </c>
+      <c r="C52" s="7">
+        <v>166</v>
+      </c>
+      <c r="D52" s="7">
+        <v>13</v>
+      </c>
+      <c r="E52" s="7">
+        <v>390</v>
+      </c>
+      <c r="F52" s="7">
+        <v>71</v>
+      </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UAVORG\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A3F96-3AAC-4536-8390-5BA658AB70FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A829E94-8C11-4656-92FD-8BCDB86ED1AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28690" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1562,12 +1562,24 @@
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="A53" s="8">
+        <v>43434</v>
+      </c>
+      <c r="B53" s="9">
+        <v>394</v>
+      </c>
+      <c r="C53" s="9">
+        <v>168</v>
+      </c>
+      <c r="D53" s="9">
+        <v>3</v>
+      </c>
+      <c r="E53" s="9">
+        <v>237</v>
+      </c>
+      <c r="F53" s="9">
+        <v>67</v>
+      </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UAVORG\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openUAV\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A829E94-8C11-4656-92FD-8BCDB86ED1AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BCE2B2-BA50-405E-A16C-70DD116DAACF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28690" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,19 +506,19 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.08984375"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,12 +1582,24 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="A54" s="8">
+        <v>43441</v>
+      </c>
+      <c r="B54" s="9">
+        <v>402</v>
+      </c>
+      <c r="C54" s="9">
+        <v>169</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9">
+        <v>437</v>
+      </c>
+      <c r="F54" s="9">
+        <v>102</v>
+      </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openUAV\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BCE2B2-BA50-405E-A16C-70DD116DAACF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B35A90B-CC65-47F1-860E-8AE1CF9C81CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,8 +506,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1602,12 +1602,24 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="A55" s="8">
+        <v>43448</v>
+      </c>
+      <c r="B55" s="9">
+        <v>405</v>
+      </c>
+      <c r="C55" s="9">
+        <v>170</v>
+      </c>
+      <c r="D55" s="9">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9">
+        <v>501</v>
+      </c>
+      <c r="F55" s="9">
+        <v>144</v>
+      </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openUAV\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B35A90B-CC65-47F1-860E-8AE1CF9C81CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02FE71-F745-4DE2-A95D-E87278294248}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -60,12 +60,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -507,21 +509,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.109375"/>
+    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -541,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>43049</v>
       </c>
@@ -561,7 +563,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>43056</v>
       </c>
@@ -581,7 +583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>43063</v>
       </c>
@@ -601,7 +603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>43070</v>
       </c>
@@ -621,7 +623,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -641,7 +643,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43084</v>
       </c>
@@ -661,7 +663,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>43091</v>
       </c>
@@ -681,7 +683,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>43098</v>
       </c>
@@ -701,7 +703,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>43105</v>
       </c>
@@ -721,7 +723,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>43112</v>
       </c>
@@ -741,7 +743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>43119</v>
       </c>
@@ -761,7 +763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>43126</v>
       </c>
@@ -781,7 +783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>43133</v>
       </c>
@@ -801,7 +803,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
@@ -821,7 +823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>43168</v>
       </c>
@@ -841,7 +843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>43175</v>
       </c>
@@ -861,7 +863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>43182</v>
       </c>
@@ -881,7 +883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>43189</v>
       </c>
@@ -901,7 +903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>43203</v>
       </c>
@@ -921,7 +923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>43210</v>
       </c>
@@ -941,7 +943,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>43217</v>
       </c>
@@ -961,7 +963,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>43224</v>
       </c>
@@ -981,7 +983,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>43231</v>
       </c>
@@ -1001,7 +1003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>43238</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>43245</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>43252</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>43259</v>
       </c>
@@ -1081,7 +1083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>43266</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>43273</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>43280</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>43287</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>43294</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>43301</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>43308</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>43315</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>43322</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>43329</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>43337</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>43343</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>43350</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>43357</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>43364</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>43371</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>43378</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>43385</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <v>43392</v>
       </c>
@@ -1461,7 +1463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>43399</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <v>43406</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>43413</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <v>43420</v>
       </c>
@@ -1541,7 +1543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>43427</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8">
         <v>43434</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8">
         <v>43441</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8">
         <v>43448</v>
       </c>
@@ -1621,15 +1623,27 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>43455</v>
+      </c>
+      <c r="B56" s="9">
+        <v>407</v>
+      </c>
+      <c r="C56" s="9">
+        <v>173</v>
+      </c>
+      <c r="D56" s="9">
+        <v>9</v>
+      </c>
+      <c r="E56" s="9">
+        <v>246</v>
+      </c>
+      <c r="F56" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1637,7 +1651,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1645,7 +1659,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1653,7 +1667,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1661,7 +1675,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openUAV\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02FE71-F745-4DE2-A95D-E87278294248}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0587BEEA-85EF-4DB1-AF12-8D653A64B1EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1644,12 +1644,24 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="A57" s="8">
+        <v>43462</v>
+      </c>
+      <c r="B57" s="9">
+        <v>413</v>
+      </c>
+      <c r="C57" s="9">
+        <v>173</v>
+      </c>
+      <c r="D57" s="9">
+        <v>3</v>
+      </c>
+      <c r="E57" s="9">
+        <v>366</v>
+      </c>
+      <c r="F57" s="9">
+        <v>96</v>
+      </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openUAV\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0587BEEA-85EF-4DB1-AF12-8D653A64B1EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE1E933-18E8-4BD0-B409-B53DE6BCA22E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,21 +509,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.125"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43049</v>
       </c>
@@ -563,7 +563,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43056</v>
       </c>
@@ -583,7 +583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43063</v>
       </c>
@@ -603,7 +603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43070</v>
       </c>
@@ -623,7 +623,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -643,7 +643,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43084</v>
       </c>
@@ -663,7 +663,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43091</v>
       </c>
@@ -683,7 +683,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43098</v>
       </c>
@@ -703,7 +703,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43105</v>
       </c>
@@ -723,7 +723,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43112</v>
       </c>
@@ -743,7 +743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43119</v>
       </c>
@@ -763,7 +763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43126</v>
       </c>
@@ -783,7 +783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43133</v>
       </c>
@@ -803,7 +803,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
@@ -823,7 +823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43168</v>
       </c>
@@ -843,7 +843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43175</v>
       </c>
@@ -863,7 +863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43182</v>
       </c>
@@ -883,7 +883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43189</v>
       </c>
@@ -903,7 +903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43203</v>
       </c>
@@ -923,7 +923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43210</v>
       </c>
@@ -943,7 +943,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43217</v>
       </c>
@@ -963,7 +963,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43224</v>
       </c>
@@ -983,7 +983,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43231</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43238</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43245</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43252</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43259</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>43266</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43273</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>43280</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43287</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>43294</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43301</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>43308</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43315</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>43322</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43329</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>43337</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43343</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>43350</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43357</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>43364</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43371</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43378</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43385</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43392</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>43399</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>43406</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>43413</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>43420</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43427</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>43434</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>43441</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>43448</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>43455</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>43462</v>
       </c>
@@ -1663,15 +1663,27 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>43469</v>
+      </c>
+      <c r="B58" s="9">
+        <v>418</v>
+      </c>
+      <c r="C58" s="9">
+        <v>175</v>
+      </c>
+      <c r="D58" s="9">
+        <v>4</v>
+      </c>
+      <c r="E58" s="9">
+        <v>214</v>
+      </c>
+      <c r="F58" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1679,7 +1691,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1687,7 +1699,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE1E933-18E8-4BD0-B409-B53DE6BCA22E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E61ADA4-3EA6-4B2C-97B4-55F74B5FDD14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +88,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -144,6 +150,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -508,8 +520,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1584,22 +1596,22 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="10">
         <v>43441</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="11">
         <v>402</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="11">
         <v>169</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="11">
         <v>1</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="11">
         <v>437</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="11">
         <v>102</v>
       </c>
     </row>
@@ -1624,22 +1636,22 @@
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="10">
         <v>43455</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="11">
         <v>407</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="11">
         <v>173</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="11">
         <v>9</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="11">
         <v>246</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="11">
         <v>72</v>
       </c>
     </row>
@@ -1664,40 +1676,52 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="10">
         <v>43469</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="11">
         <v>418</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="11">
         <v>175</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="11">
         <v>4</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="11">
         <v>214</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="11">
         <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="A59" s="8">
+        <v>43476</v>
+      </c>
+      <c r="B59" s="9">
+        <v>418</v>
+      </c>
+      <c r="C59" s="9">
+        <v>175</v>
+      </c>
+      <c r="D59" s="9">
+        <v>8</v>
+      </c>
+      <c r="E59" s="9">
+        <v>339</v>
+      </c>
+      <c r="F59" s="9">
+        <v>67</v>
+      </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E61ADA4-3EA6-4B2C-97B4-55F74B5FDD14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E850D5-BB5D-456F-A00A-F099305AED13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,8 +520,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1716,20 +1716,32 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="A60" s="6">
+        <v>43483</v>
+      </c>
+      <c r="B60" s="7">
+        <v>419</v>
+      </c>
+      <c r="C60" s="7">
+        <v>178</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7">
+        <v>185</v>
+      </c>
+      <c r="F60" s="7">
+        <v>54</v>
+      </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E850D5-BB5D-456F-A00A-F099305AED13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B7EB2-BE13-4138-B9B8-A3F592D15DD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1736,12 +1736,24 @@
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="A61" s="8">
+        <v>43490</v>
+      </c>
+      <c r="B61" s="9">
+        <v>421</v>
+      </c>
+      <c r="C61" s="9">
+        <v>178</v>
+      </c>
+      <c r="D61" s="9">
+        <v>5</v>
+      </c>
+      <c r="E61" s="9">
+        <v>149</v>
+      </c>
+      <c r="F61" s="9">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openUAV\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B7EB2-BE13-4138-B9B8-A3F592D15DD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2270B0-DEB1-440C-BE02-7D29A4F67A7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -156,6 +156,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -517,25 +520,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.109375"/>
+    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -555,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>43049</v>
       </c>
@@ -575,7 +578,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>43056</v>
       </c>
@@ -595,7 +598,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>43063</v>
       </c>
@@ -615,7 +618,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>43070</v>
       </c>
@@ -635,7 +638,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -655,7 +658,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43084</v>
       </c>
@@ -675,7 +678,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>43091</v>
       </c>
@@ -695,7 +698,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>43098</v>
       </c>
@@ -715,7 +718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>43105</v>
       </c>
@@ -735,7 +738,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>43112</v>
       </c>
@@ -755,7 +758,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>43119</v>
       </c>
@@ -775,7 +778,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>43126</v>
       </c>
@@ -795,7 +798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>43133</v>
       </c>
@@ -815,7 +818,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
@@ -835,7 +838,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>43168</v>
       </c>
@@ -855,7 +858,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>43175</v>
       </c>
@@ -875,7 +878,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>43182</v>
       </c>
@@ -895,7 +898,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>43189</v>
       </c>
@@ -915,7 +918,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>43203</v>
       </c>
@@ -935,7 +938,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>43210</v>
       </c>
@@ -955,7 +958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>43217</v>
       </c>
@@ -975,7 +978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>43224</v>
       </c>
@@ -995,7 +998,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>43231</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>43238</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>43245</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>43252</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>43259</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>43266</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>43273</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>43280</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>43287</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>43294</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>43301</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>43308</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>43315</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>43322</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>43329</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>43337</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>43343</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>43350</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>43357</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>43364</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>43371</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>43378</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>43385</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <v>43392</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>43399</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <v>43406</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>43413</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <v>43420</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>43427</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8">
         <v>43434</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
         <v>43441</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8">
         <v>43448</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <v>43455</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8">
         <v>43462</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10">
         <v>43469</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <v>43476</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>43483</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
         <v>43490</v>
       </c>
@@ -1753,6 +1756,26 @@
       </c>
       <c r="F61" s="9">
         <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="12">
+        <v>43497</v>
+      </c>
+      <c r="B62" s="3">
+        <v>427</v>
+      </c>
+      <c r="C62" s="3">
+        <v>182</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>255</v>
+      </c>
+      <c r="F62" s="3">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
